--- a/models/regression_model_3m/pycaret_tables.xlsx
+++ b/models/regression_model_3m/pycaret_tables.xlsx
@@ -586,7 +586,7 @@
         <v>0.092</v>
       </c>
       <c r="I2">
-        <v>0.08</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -615,7 +615,7 @@
         <v>0.1058</v>
       </c>
       <c r="I3">
-        <v>0.056</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -644,7 +644,7 @@
         <v>0.1223</v>
       </c>
       <c r="I4">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -673,7 +673,7 @@
         <v>0.1123</v>
       </c>
       <c r="I5">
-        <v>0.042</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -702,7 +702,7 @@
         <v>0.1075</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -731,7 +731,7 @@
         <v>0.1503</v>
       </c>
       <c r="I7">
-        <v>1.082</v>
+        <v>1.148</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -789,7 +789,7 @@
         <v>0.133</v>
       </c>
       <c r="I9">
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -818,7 +818,7 @@
         <v>0.1301</v>
       </c>
       <c r="I10">
-        <v>0.028</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -847,7 +847,7 @@
         <v>0.1513</v>
       </c>
       <c r="I11">
-        <v>0.028</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -876,7 +876,7 @@
         <v>0.1622</v>
       </c>
       <c r="I12">
-        <v>0.032</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -905,7 +905,7 @@
         <v>0.1564</v>
       </c>
       <c r="I13">
-        <v>0.528</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -934,7 +934,7 @@
         <v>0.1779</v>
       </c>
       <c r="I14">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -963,7 +963,7 @@
         <v>0.1635</v>
       </c>
       <c r="I15">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -992,7 +992,7 @@
         <v>0.1888</v>
       </c>
       <c r="I16">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1021,7 +1021,7 @@
         <v>0.3072</v>
       </c>
       <c r="I17">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1050,7 +1050,7 @@
         <v>0.4902</v>
       </c>
       <c r="I18">
-        <v>0.024</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1079,7 +1079,7 @@
         <v>10.8059</v>
       </c>
       <c r="I19">
-        <v>0.022</v>
+        <v>0.026</v>
       </c>
     </row>
   </sheetData>
@@ -1188,22 +1188,22 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>2.9293</v>
+        <v>1.6065</v>
       </c>
       <c r="D2">
-        <v>15.0274</v>
+        <v>4.2426</v>
       </c>
       <c r="E2">
-        <v>3.8765</v>
+        <v>2.0598</v>
       </c>
       <c r="F2">
-        <v>0.97</v>
+        <v>0.9936</v>
       </c>
       <c r="G2">
-        <v>0.0682</v>
+        <v>0.0386</v>
       </c>
       <c r="H2">
-        <v>0.0532</v>
+        <v>0.0292</v>
       </c>
     </row>
   </sheetData>

--- a/models/regression_model_3m/pycaret_tables.xlsx
+++ b/models/regression_model_3m/pycaret_tables.xlsx
@@ -53,45 +53,45 @@
     <t>et</t>
   </si>
   <si>
+    <t>lightgbm</t>
+  </si>
+  <si>
     <t>gbr</t>
   </si>
   <si>
+    <t>rf</t>
+  </si>
+  <si>
     <t>ada</t>
   </si>
   <si>
-    <t>lightgbm</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
     <t>lr</t>
   </si>
   <si>
+    <t>knn</t>
+  </si>
+  <si>
     <t>ridge</t>
   </si>
   <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>lasso</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>huber</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
     <t>dt</t>
   </si>
   <si>
-    <t>knn</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>huber</t>
-  </si>
-  <si>
-    <t>lasso</t>
-  </si>
-  <si>
-    <t>par</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>omp</t>
   </si>
   <si>
@@ -107,43 +107,43 @@
     <t>Extra Trees Regressor</t>
   </si>
   <si>
+    <t>Light Gradient Boosting Machine</t>
+  </si>
+  <si>
     <t>Gradient Boosting Regressor</t>
   </si>
   <si>
+    <t>Random Forest Regressor</t>
+  </si>
+  <si>
     <t>AdaBoost Regressor</t>
   </si>
   <si>
-    <t>Light Gradient Boosting Machine</t>
-  </si>
-  <si>
-    <t>Random Forest Regressor</t>
-  </si>
-  <si>
     <t>Linear Regression</t>
   </si>
   <si>
+    <t>K Neighbors Regressor</t>
+  </si>
+  <si>
     <t>Ridge Regression</t>
   </si>
   <si>
+    <t>Bayesian Ridge</t>
+  </si>
+  <si>
+    <t>Lasso Regression</t>
+  </si>
+  <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
+    <t>Huber Regressor</t>
+  </si>
+  <si>
+    <t>Passive Aggressive Regressor</t>
+  </si>
+  <si>
     <t>Decision Tree Regressor</t>
-  </si>
-  <si>
-    <t>K Neighbors Regressor</t>
-  </si>
-  <si>
-    <t>Bayesian Ridge</t>
-  </si>
-  <si>
-    <t>Huber Regressor</t>
-  </si>
-  <si>
-    <t>Lasso Regression</t>
-  </si>
-  <si>
-    <t>Passive Aggressive Regressor</t>
-  </si>
-  <si>
-    <t>Elastic Net</t>
   </si>
   <si>
     <t>Orthogonal Matching Pursuit</t>
@@ -568,25 +568,25 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>5.0704</v>
+        <v>5.1426</v>
       </c>
       <c r="D2">
-        <v>59.6209</v>
+        <v>56.5649</v>
       </c>
       <c r="E2">
-        <v>7.5392</v>
+        <v>7.2851</v>
       </c>
       <c r="F2">
-        <v>0.9036999999999999</v>
+        <v>0.9261</v>
       </c>
       <c r="G2">
-        <v>0.1267</v>
+        <v>0.1268</v>
       </c>
       <c r="H2">
-        <v>0.092</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="I2">
-        <v>0.074</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -597,25 +597,25 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>5.9153</v>
+        <v>6.4696</v>
       </c>
       <c r="D3">
-        <v>68.46429999999999</v>
+        <v>78.3138</v>
       </c>
       <c r="E3">
-        <v>8.2112</v>
+        <v>8.7201</v>
       </c>
       <c r="F3">
-        <v>0.8931</v>
+        <v>0.8969</v>
       </c>
       <c r="G3">
-        <v>0.1338</v>
+        <v>0.153</v>
       </c>
       <c r="H3">
-        <v>0.1058</v>
+        <v>0.1197</v>
       </c>
       <c r="I3">
-        <v>0.048</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -626,25 +626,25 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>6.5329</v>
+        <v>6.2325</v>
       </c>
       <c r="D4">
-        <v>79.9325</v>
+        <v>84.2282</v>
       </c>
       <c r="E4">
-        <v>8.8477</v>
+        <v>8.9201</v>
       </c>
       <c r="F4">
-        <v>0.8741</v>
+        <v>0.8908</v>
       </c>
       <c r="G4">
-        <v>0.1513</v>
+        <v>0.1492</v>
       </c>
       <c r="H4">
-        <v>0.1223</v>
+        <v>0.1113</v>
       </c>
       <c r="I4">
-        <v>0.042</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -655,25 +655,25 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>6.3985</v>
+        <v>6.3502</v>
       </c>
       <c r="D5">
-        <v>79.8669</v>
+        <v>88.59869999999999</v>
       </c>
       <c r="E5">
-        <v>8.8954</v>
+        <v>9.1892</v>
       </c>
       <c r="F5">
-        <v>0.8774999999999999</v>
+        <v>0.8847</v>
       </c>
       <c r="G5">
-        <v>0.1435</v>
+        <v>0.1509</v>
       </c>
       <c r="H5">
-        <v>0.1123</v>
+        <v>0.113</v>
       </c>
       <c r="I5">
-        <v>0.028</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -684,25 +684,25 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>6.1511</v>
+        <v>7.0161</v>
       </c>
       <c r="D6">
-        <v>80.2504</v>
+        <v>92.4585</v>
       </c>
       <c r="E6">
-        <v>8.922599999999999</v>
+        <v>9.286199999999999</v>
       </c>
       <c r="F6">
-        <v>0.8757</v>
+        <v>0.8794</v>
       </c>
       <c r="G6">
-        <v>0.1417</v>
+        <v>0.1588</v>
       </c>
       <c r="H6">
-        <v>0.1075</v>
+        <v>0.1293</v>
       </c>
       <c r="I6">
-        <v>0.092</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -713,25 +713,25 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>7.9144</v>
+        <v>8.07</v>
       </c>
       <c r="D7">
-        <v>105.7272</v>
+        <v>108.3445</v>
       </c>
       <c r="E7">
-        <v>10.2634</v>
+        <v>10.2559</v>
       </c>
       <c r="F7">
-        <v>0.8433</v>
+        <v>0.8574000000000001</v>
       </c>
       <c r="G7">
-        <v>0.1966</v>
+        <v>0.2263</v>
       </c>
       <c r="H7">
-        <v>0.1503</v>
+        <v>0.1565</v>
       </c>
       <c r="I7">
-        <v>1.148</v>
+        <v>1.894</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -742,25 +742,25 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>8.097</v>
+        <v>7.0335</v>
       </c>
       <c r="D8">
-        <v>108.2308</v>
+        <v>111.519</v>
       </c>
       <c r="E8">
-        <v>10.3714</v>
+        <v>10.3501</v>
       </c>
       <c r="F8">
-        <v>0.8433</v>
+        <v>0.8515</v>
       </c>
       <c r="G8">
-        <v>0.1856</v>
+        <v>0.1723</v>
       </c>
       <c r="H8">
-        <v>0.1503</v>
+        <v>0.1302</v>
       </c>
       <c r="I8">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -771,25 +771,25 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>7.3949</v>
+        <v>8.3019</v>
       </c>
       <c r="D9">
-        <v>117.0186</v>
+        <v>114.0235</v>
       </c>
       <c r="E9">
-        <v>10.547</v>
+        <v>10.5637</v>
       </c>
       <c r="F9">
-        <v>0.8212</v>
+        <v>0.8498</v>
       </c>
       <c r="G9">
-        <v>0.1922</v>
+        <v>0.2042</v>
       </c>
       <c r="H9">
-        <v>0.133</v>
+        <v>0.1594</v>
       </c>
       <c r="I9">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -800,22 +800,22 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>7.1852</v>
+        <v>8.312099999999999</v>
       </c>
       <c r="D10">
-        <v>118.3487</v>
+        <v>117.8118</v>
       </c>
       <c r="E10">
-        <v>10.699</v>
+        <v>10.7621</v>
       </c>
       <c r="F10">
-        <v>0.8144</v>
+        <v>0.8443000000000001</v>
       </c>
       <c r="G10">
-        <v>0.1708</v>
+        <v>0.1965</v>
       </c>
       <c r="H10">
-        <v>0.1301</v>
+        <v>0.1584</v>
       </c>
       <c r="I10">
         <v>0.022</v>
@@ -829,25 +829,25 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>8.1858</v>
+        <v>8.315899999999999</v>
       </c>
       <c r="D11">
-        <v>115.7487</v>
+        <v>133.3326</v>
       </c>
       <c r="E11">
-        <v>10.725</v>
+        <v>11.4342</v>
       </c>
       <c r="F11">
-        <v>0.8327</v>
+        <v>0.8235</v>
       </c>
       <c r="G11">
-        <v>0.1848</v>
+        <v>0.1939</v>
       </c>
       <c r="H11">
-        <v>0.1513</v>
+        <v>0.1558</v>
       </c>
       <c r="I11">
-        <v>0.02</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -858,25 +858,25 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>8.3607</v>
+        <v>8.651999999999999</v>
       </c>
       <c r="D12">
-        <v>128.3984</v>
+        <v>144.5511</v>
       </c>
       <c r="E12">
-        <v>11.2985</v>
+        <v>11.9127</v>
       </c>
       <c r="F12">
-        <v>0.8080000000000001</v>
+        <v>0.8084</v>
       </c>
       <c r="G12">
-        <v>0.2079</v>
+        <v>0.2025</v>
       </c>
       <c r="H12">
-        <v>0.1622</v>
+        <v>0.1633</v>
       </c>
       <c r="I12">
-        <v>0.026</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -887,25 +887,25 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>8.462</v>
+        <v>8.994300000000001</v>
       </c>
       <c r="D13">
-        <v>142.1099</v>
+        <v>146.9392</v>
       </c>
       <c r="E13">
-        <v>11.8508</v>
+        <v>11.9851</v>
       </c>
       <c r="F13">
-        <v>0.7952</v>
+        <v>0.8023</v>
       </c>
       <c r="G13">
-        <v>0.1954</v>
+        <v>0.2589</v>
       </c>
       <c r="H13">
-        <v>0.1564</v>
+        <v>0.1741</v>
       </c>
       <c r="I13">
-        <v>0.594</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -916,25 +916,25 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>9.2719</v>
+        <v>9.949400000000001</v>
       </c>
       <c r="D14">
-        <v>144.1192</v>
+        <v>171.2201</v>
       </c>
       <c r="E14">
-        <v>11.9196</v>
+        <v>12.9285</v>
       </c>
       <c r="F14">
-        <v>0.7985</v>
+        <v>0.7771</v>
       </c>
       <c r="G14">
-        <v>0.2475</v>
+        <v>0.2649</v>
       </c>
       <c r="H14">
-        <v>0.1779</v>
+        <v>0.1864</v>
       </c>
       <c r="I14">
-        <v>0.016</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -945,25 +945,25 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>8.836499999999999</v>
+        <v>9.1456</v>
       </c>
       <c r="D15">
-        <v>154.0264</v>
+        <v>191.6835</v>
       </c>
       <c r="E15">
-        <v>12.3264</v>
+        <v>13.4555</v>
       </c>
       <c r="F15">
-        <v>0.7806</v>
+        <v>0.7514999999999999</v>
       </c>
       <c r="G15">
-        <v>0.203</v>
+        <v>0.2188</v>
       </c>
       <c r="H15">
-        <v>0.1635</v>
+        <v>0.1592</v>
       </c>
       <c r="I15">
-        <v>0.022</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -974,25 +974,25 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>9.8102</v>
+        <v>9.303800000000001</v>
       </c>
       <c r="D16">
-        <v>198.2657</v>
+        <v>187.351</v>
       </c>
       <c r="E16">
-        <v>13.9934</v>
+        <v>13.4743</v>
       </c>
       <c r="F16">
-        <v>0.6969</v>
+        <v>0.751</v>
       </c>
       <c r="G16">
-        <v>0.2421</v>
+        <v>0.2338</v>
       </c>
       <c r="H16">
-        <v>0.1888</v>
+        <v>0.1769</v>
       </c>
       <c r="I16">
-        <v>0.024</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1003,25 +1003,25 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>14.8805</v>
+        <v>14.8057</v>
       </c>
       <c r="D17">
-        <v>342.4281</v>
+        <v>328.4843</v>
       </c>
       <c r="E17">
-        <v>18.1565</v>
+        <v>17.9968</v>
       </c>
       <c r="F17">
-        <v>0.5395</v>
+        <v>0.5672</v>
       </c>
       <c r="G17">
-        <v>0.3219</v>
+        <v>0.3218</v>
       </c>
       <c r="H17">
-        <v>0.3072</v>
+        <v>0.3076</v>
       </c>
       <c r="I17">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1032,25 +1032,25 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>22.9917</v>
+        <v>23.6246</v>
       </c>
       <c r="D18">
-        <v>745.0727000000001</v>
+        <v>760.3468</v>
       </c>
       <c r="E18">
-        <v>27.0142</v>
+        <v>27.512</v>
       </c>
       <c r="F18">
-        <v>-0.0264</v>
+        <v>-0.0098</v>
       </c>
       <c r="G18">
-        <v>0.4735</v>
+        <v>0.483</v>
       </c>
       <c r="H18">
-        <v>0.4902</v>
+        <v>0.5036</v>
       </c>
       <c r="I18">
-        <v>0.018</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1061,25 +1061,25 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>600.2651</v>
+        <v>28.8631</v>
       </c>
       <c r="D19">
-        <v>2074195.2838</v>
+        <v>1675.6423</v>
       </c>
       <c r="E19">
-        <v>738.6731</v>
+        <v>36.5242</v>
       </c>
       <c r="F19">
-        <v>-2007.8929</v>
+        <v>-1.0545</v>
       </c>
       <c r="G19">
-        <v>1.5208</v>
+        <v>0.6599</v>
       </c>
       <c r="H19">
-        <v>10.8059</v>
+        <v>0.61</v>
       </c>
       <c r="I19">
-        <v>0.026</v>
+        <v>0.022</v>
       </c>
     </row>
   </sheetData>
@@ -1126,22 +1126,22 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>4.2646</v>
+        <v>4.6081</v>
       </c>
       <c r="D2">
-        <v>38.3935</v>
+        <v>38.7577</v>
       </c>
       <c r="E2">
-        <v>6.1963</v>
+        <v>6.2256</v>
       </c>
       <c r="F2">
-        <v>0.9233</v>
+        <v>0.9188</v>
       </c>
       <c r="G2">
-        <v>0.1095</v>
+        <v>0.0997</v>
       </c>
       <c r="H2">
-        <v>0.074</v>
+        <v>0.07820000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1185,25 +1185,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>1.6065</v>
+        <v>1.3449</v>
       </c>
       <c r="D2">
-        <v>4.2426</v>
+        <v>4.1664</v>
       </c>
       <c r="E2">
-        <v>2.0598</v>
+        <v>2.0412</v>
       </c>
       <c r="F2">
-        <v>0.9936</v>
+        <v>0.9938</v>
       </c>
       <c r="G2">
-        <v>0.0386</v>
+        <v>0.0344</v>
       </c>
       <c r="H2">
-        <v>0.0292</v>
+        <v>0.0224</v>
       </c>
     </row>
   </sheetData>
@@ -1247,22 +1247,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.8715</v>
+        <v>4.7341</v>
       </c>
       <c r="C2">
-        <v>62.9034</v>
+        <v>54.2063</v>
       </c>
       <c r="D2">
-        <v>7.9312</v>
+        <v>7.3625</v>
       </c>
       <c r="E2">
-        <v>0.8884</v>
+        <v>0.9249000000000001</v>
       </c>
       <c r="F2">
-        <v>0.1316</v>
+        <v>0.1171</v>
       </c>
       <c r="G2">
-        <v>0.1042</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1270,22 +1270,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.8592</v>
+        <v>5.5477</v>
       </c>
       <c r="C3">
-        <v>75.29470000000001</v>
+        <v>68.6525</v>
       </c>
       <c r="D3">
-        <v>8.677300000000001</v>
+        <v>8.2857</v>
       </c>
       <c r="E3">
-        <v>0.9157</v>
+        <v>0.9184</v>
       </c>
       <c r="F3">
-        <v>0.1651</v>
+        <v>0.1292</v>
       </c>
       <c r="G3">
-        <v>0.1186</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1293,22 +1293,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.4834</v>
+        <v>4.474</v>
       </c>
       <c r="C4">
-        <v>74.2329</v>
+        <v>34.2661</v>
       </c>
       <c r="D4">
-        <v>8.6159</v>
+        <v>5.8537</v>
       </c>
       <c r="E4">
-        <v>0.8786</v>
+        <v>0.9412</v>
       </c>
       <c r="F4">
-        <v>0.1301</v>
+        <v>0.1204</v>
       </c>
       <c r="G4">
-        <v>0.09429999999999999</v>
+        <v>0.0916</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1316,22 +1316,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.511</v>
+        <v>5.1587</v>
       </c>
       <c r="C5">
-        <v>37.5249</v>
+        <v>50.2205</v>
       </c>
       <c r="D5">
-        <v>6.1258</v>
+        <v>7.0866</v>
       </c>
       <c r="E5">
-        <v>0.9638</v>
+        <v>0.9405</v>
       </c>
       <c r="F5">
-        <v>0.0927</v>
+        <v>0.111</v>
       </c>
       <c r="G5">
-        <v>0.0733</v>
+        <v>0.08359999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1339,22 +1339,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.3985</v>
+        <v>7.6564</v>
       </c>
       <c r="C6">
-        <v>115.4062</v>
+        <v>121.156</v>
       </c>
       <c r="D6">
-        <v>10.7427</v>
+        <v>11.0071</v>
       </c>
       <c r="E6">
-        <v>0.776</v>
+        <v>0.8433</v>
       </c>
       <c r="F6">
-        <v>0.1696</v>
+        <v>0.2116</v>
       </c>
       <c r="G6">
-        <v>0.1175</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1362,22 +1362,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.6248</v>
+        <v>5.5142</v>
       </c>
       <c r="C7">
-        <v>73.0724</v>
+        <v>65.7003</v>
       </c>
       <c r="D7">
-        <v>8.4186</v>
+        <v>7.9191</v>
       </c>
       <c r="E7">
-        <v>0.8845</v>
+        <v>0.9137</v>
       </c>
       <c r="F7">
         <v>0.1378</v>
       </c>
       <c r="G7">
-        <v>0.1016</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1385,22 +1385,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6284999999999999</v>
+        <v>1.132</v>
       </c>
       <c r="C8">
-        <v>25.1613</v>
+        <v>29.8124</v>
       </c>
       <c r="D8">
-        <v>1.4834</v>
+        <v>1.7285</v>
       </c>
       <c r="E8">
-        <v>0.0618</v>
+        <v>0.0363</v>
       </c>
       <c r="F8">
-        <v>0.0279</v>
+        <v>0.0373</v>
       </c>
       <c r="G8">
-        <v>0.0167</v>
+        <v>0.0314</v>
       </c>
     </row>
   </sheetData>
@@ -1444,22 +1444,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.0186</v>
+        <v>6.1607</v>
       </c>
       <c r="C2">
-        <v>61.3185</v>
+        <v>64.52760000000001</v>
       </c>
       <c r="D2">
-        <v>7.8306</v>
+        <v>8.0329</v>
       </c>
       <c r="E2">
-        <v>0.8912</v>
+        <v>0.9106</v>
       </c>
       <c r="F2">
-        <v>0.1283</v>
+        <v>0.1292</v>
       </c>
       <c r="G2">
-        <v>0.1054</v>
+        <v>0.1073</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1467,22 +1467,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.9763</v>
+        <v>5.9446</v>
       </c>
       <c r="C3">
-        <v>49.9357</v>
+        <v>73.49420000000001</v>
       </c>
       <c r="D3">
-        <v>7.0665</v>
+        <v>8.572900000000001</v>
       </c>
       <c r="E3">
-        <v>0.9441000000000001</v>
+        <v>0.9126</v>
       </c>
       <c r="F3">
-        <v>0.1375</v>
+        <v>0.1373</v>
       </c>
       <c r="G3">
-        <v>0.0992</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.2205</v>
+        <v>4.3214</v>
       </c>
       <c r="C4">
-        <v>67.61409999999999</v>
+        <v>34.1426</v>
       </c>
       <c r="D4">
-        <v>8.222799999999999</v>
+        <v>5.8432</v>
       </c>
       <c r="E4">
-        <v>0.8894</v>
+        <v>0.9414</v>
       </c>
       <c r="F4">
-        <v>0.1185</v>
+        <v>0.1045</v>
       </c>
       <c r="G4">
-        <v>0.0901</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.7513</v>
+        <v>5.7123</v>
       </c>
       <c r="C5">
-        <v>26.8092</v>
+        <v>48.128</v>
       </c>
       <c r="D5">
-        <v>5.1778</v>
+        <v>6.9374</v>
       </c>
       <c r="E5">
-        <v>0.9741</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="F5">
-        <v>0.0925</v>
+        <v>0.1087</v>
       </c>
       <c r="G5">
-        <v>0.0688</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.4633</v>
+        <v>7.0208</v>
       </c>
       <c r="C6">
-        <v>83.5889</v>
+        <v>92.6619</v>
       </c>
       <c r="D6">
-        <v>9.1427</v>
+        <v>9.626099999999999</v>
       </c>
       <c r="E6">
-        <v>0.8377</v>
+        <v>0.8802</v>
       </c>
       <c r="F6">
-        <v>0.1561</v>
+        <v>0.1935</v>
       </c>
       <c r="G6">
-        <v>0.1186</v>
+        <v>0.1505</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.286</v>
+        <v>5.832</v>
       </c>
       <c r="C7">
-        <v>57.8533</v>
+        <v>62.5909</v>
       </c>
       <c r="D7">
-        <v>7.4881</v>
+        <v>7.8025</v>
       </c>
       <c r="E7">
-        <v>0.9073</v>
+        <v>0.9176</v>
       </c>
       <c r="F7">
-        <v>0.1266</v>
+        <v>0.1346</v>
       </c>
       <c r="G7">
-        <v>0.0964</v>
+        <v>0.1071</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1582,22 +1582,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.9358</v>
+        <v>0.8753</v>
       </c>
       <c r="C8">
-        <v>18.9527</v>
+        <v>20.2256</v>
       </c>
       <c r="D8">
-        <v>1.3349</v>
+        <v>1.3084</v>
       </c>
       <c r="E8">
-        <v>0.0474</v>
+        <v>0.0232</v>
       </c>
       <c r="F8">
-        <v>0.0211</v>
+        <v>0.0319</v>
       </c>
       <c r="G8">
-        <v>0.0166</v>
+        <v>0.0236</v>
       </c>
     </row>
   </sheetData>
@@ -1641,22 +1641,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.1517</v>
+        <v>4.8012</v>
       </c>
       <c r="C2">
-        <v>74.0295</v>
+        <v>43.7897</v>
       </c>
       <c r="D2">
-        <v>8.603999999999999</v>
+        <v>6.6174</v>
       </c>
       <c r="E2">
-        <v>0.8687</v>
+        <v>0.9393</v>
       </c>
       <c r="F2">
-        <v>0.1479</v>
+        <v>0.09909999999999999</v>
       </c>
       <c r="G2">
-        <v>0.1322</v>
+        <v>0.0798</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1664,22 +1664,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.0201</v>
+        <v>5.0161</v>
       </c>
       <c r="C3">
-        <v>63.1084</v>
+        <v>54.1704</v>
       </c>
       <c r="D3">
-        <v>7.9441</v>
+        <v>7.3601</v>
       </c>
       <c r="E3">
-        <v>0.9293</v>
+        <v>0.9356</v>
       </c>
       <c r="F3">
-        <v>0.1551</v>
+        <v>0.1212</v>
       </c>
       <c r="G3">
-        <v>0.1198</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1687,22 +1687,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.266</v>
+        <v>3.8946</v>
       </c>
       <c r="C4">
-        <v>98.2974</v>
+        <v>27.9737</v>
       </c>
       <c r="D4">
-        <v>9.9145</v>
+        <v>5.289</v>
       </c>
       <c r="E4">
-        <v>0.8393</v>
+        <v>0.952</v>
       </c>
       <c r="F4">
-        <v>0.1373</v>
+        <v>0.0901</v>
       </c>
       <c r="G4">
-        <v>0.1063</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1710,22 +1710,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.7261</v>
+        <v>5.0757</v>
       </c>
       <c r="C5">
-        <v>52.3886</v>
+        <v>46.3666</v>
       </c>
       <c r="D5">
-        <v>7.238</v>
+        <v>6.8093</v>
       </c>
       <c r="E5">
-        <v>0.9494</v>
+        <v>0.9451000000000001</v>
       </c>
       <c r="F5">
-        <v>0.1385</v>
+        <v>0.1223</v>
       </c>
       <c r="G5">
-        <v>0.1133</v>
+        <v>0.0843</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1733,22 +1733,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.1016</v>
+        <v>7.7388</v>
       </c>
       <c r="C6">
-        <v>97.73090000000001</v>
+        <v>104.4714</v>
       </c>
       <c r="D6">
-        <v>9.885899999999999</v>
+        <v>10.2211</v>
       </c>
       <c r="E6">
-        <v>0.8103</v>
+        <v>0.8649</v>
       </c>
       <c r="F6">
-        <v>0.1675</v>
+        <v>0.2074</v>
       </c>
       <c r="G6">
-        <v>0.1301</v>
+        <v>0.1682</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1756,22 +1756,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>6.4531</v>
+        <v>5.3053</v>
       </c>
       <c r="C7">
-        <v>77.111</v>
+        <v>55.3544</v>
       </c>
       <c r="D7">
-        <v>8.7173</v>
+        <v>7.2594</v>
       </c>
       <c r="E7">
-        <v>0.8794</v>
+        <v>0.9274</v>
       </c>
       <c r="F7">
-        <v>0.1493</v>
+        <v>0.128</v>
       </c>
       <c r="G7">
-        <v>0.1204</v>
+        <v>0.0994</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1779,22 +1779,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.5760999999999999</v>
+        <v>1.2886</v>
       </c>
       <c r="C8">
-        <v>18.3892</v>
+        <v>25.9927</v>
       </c>
       <c r="D8">
-        <v>1.0581</v>
+        <v>1.6297</v>
       </c>
       <c r="E8">
-        <v>0.0527</v>
+        <v>0.0317</v>
       </c>
       <c r="F8">
-        <v>0.0112</v>
+        <v>0.0416</v>
       </c>
       <c r="G8">
-        <v>0.0098</v>
+        <v>0.0349</v>
       </c>
     </row>
   </sheetData>
@@ -1838,22 +1838,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.8282</v>
+        <v>5.1418</v>
       </c>
       <c r="C2">
-        <v>57.6739</v>
+        <v>64.4306</v>
       </c>
       <c r="D2">
-        <v>7.5943</v>
+        <v>8.026899999999999</v>
       </c>
       <c r="E2">
-        <v>0.8977000000000001</v>
+        <v>0.9107</v>
       </c>
       <c r="F2">
-        <v>0.1252</v>
+        <v>0.1243</v>
       </c>
       <c r="G2">
-        <v>0.1085</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1861,22 +1861,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.3814</v>
+        <v>5.7532</v>
       </c>
       <c r="C3">
-        <v>57.2429</v>
+        <v>72.5934</v>
       </c>
       <c r="D3">
-        <v>7.5659</v>
+        <v>8.520200000000001</v>
       </c>
       <c r="E3">
-        <v>0.9359</v>
+        <v>0.9137</v>
       </c>
       <c r="F3">
-        <v>0.1396</v>
+        <v>0.1259</v>
       </c>
       <c r="G3">
-        <v>0.1024</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1884,22 +1884,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.4021</v>
+        <v>4.607</v>
       </c>
       <c r="C4">
-        <v>76.52549999999999</v>
+        <v>37.2248</v>
       </c>
       <c r="D4">
-        <v>8.7479</v>
+        <v>6.1012</v>
       </c>
       <c r="E4">
-        <v>0.8749</v>
+        <v>0.9361</v>
       </c>
       <c r="F4">
-        <v>0.1266</v>
+        <v>0.1167</v>
       </c>
       <c r="G4">
-        <v>0.08740000000000001</v>
+        <v>0.0916</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1907,22 +1907,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.5458</v>
+        <v>5.9799</v>
       </c>
       <c r="C5">
-        <v>46.3367</v>
+        <v>64.8425</v>
       </c>
       <c r="D5">
-        <v>6.8071</v>
+        <v>8.0525</v>
       </c>
       <c r="E5">
-        <v>0.9553</v>
+        <v>0.9232</v>
       </c>
       <c r="F5">
-        <v>0.1008</v>
+        <v>0.1258</v>
       </c>
       <c r="G5">
-        <v>0.0769</v>
+        <v>0.09569999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1930,22 +1930,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.4327</v>
+        <v>7.779</v>
       </c>
       <c r="C6">
-        <v>126.0524</v>
+        <v>137.6488</v>
       </c>
       <c r="D6">
-        <v>11.2273</v>
+        <v>11.7324</v>
       </c>
       <c r="E6">
-        <v>0.7553</v>
+        <v>0.822</v>
       </c>
       <c r="F6">
-        <v>0.1774</v>
+        <v>0.2167</v>
       </c>
       <c r="G6">
-        <v>0.1326</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1953,22 +1953,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.718</v>
+        <v>5.8522</v>
       </c>
       <c r="C7">
-        <v>72.7663</v>
+        <v>75.348</v>
       </c>
       <c r="D7">
-        <v>8.388500000000001</v>
+        <v>8.486599999999999</v>
       </c>
       <c r="E7">
-        <v>0.8838</v>
+        <v>0.9012</v>
       </c>
       <c r="F7">
-        <v>0.1339</v>
+        <v>0.1419</v>
       </c>
       <c r="G7">
-        <v>0.1016</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1976,22 +1976,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.9528</v>
+        <v>1.0765</v>
       </c>
       <c r="C8">
-        <v>28.3578</v>
+        <v>33.3824</v>
       </c>
       <c r="D8">
-        <v>1.5489</v>
+        <v>1.8235</v>
       </c>
       <c r="E8">
-        <v>0.0701</v>
+        <v>0.0406</v>
       </c>
       <c r="F8">
-        <v>0.0251</v>
+        <v>0.0376</v>
       </c>
       <c r="G8">
-        <v>0.0191</v>
+        <v>0.0304</v>
       </c>
     </row>
   </sheetData>
@@ -2035,22 +2035,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.3407</v>
+        <v>6.5565</v>
       </c>
       <c r="C2">
-        <v>67.2146</v>
+        <v>72.0138</v>
       </c>
       <c r="D2">
-        <v>8.198499999999999</v>
+        <v>8.4861</v>
       </c>
       <c r="E2">
-        <v>0.8808</v>
+        <v>0.9002</v>
       </c>
       <c r="F2">
-        <v>0.1335</v>
+        <v>0.1531</v>
       </c>
       <c r="G2">
-        <v>0.1124</v>
+        <v>0.1259</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2058,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.0985</v>
+        <v>6.5134</v>
       </c>
       <c r="C3">
-        <v>80.2388</v>
+        <v>77.18770000000001</v>
       </c>
       <c r="D3">
-        <v>8.957599999999999</v>
+        <v>8.7857</v>
       </c>
       <c r="E3">
-        <v>0.9101</v>
+        <v>0.9083</v>
       </c>
       <c r="F3">
-        <v>0.1621</v>
+        <v>0.137</v>
       </c>
       <c r="G3">
-        <v>0.1175</v>
+        <v>0.1078</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2081,22 +2081,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.4155</v>
+        <v>5.3312</v>
       </c>
       <c r="C4">
-        <v>74.6326</v>
+        <v>47.8971</v>
       </c>
       <c r="D4">
-        <v>8.638999999999999</v>
+        <v>6.9208</v>
       </c>
       <c r="E4">
-        <v>0.878</v>
+        <v>0.9177999999999999</v>
       </c>
       <c r="F4">
-        <v>0.1218</v>
+        <v>0.1296</v>
       </c>
       <c r="G4">
-        <v>0.0931</v>
+        <v>0.1049</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.999</v>
+        <v>6.8055</v>
       </c>
       <c r="C5">
-        <v>44.7043</v>
+        <v>78.1621</v>
       </c>
       <c r="D5">
-        <v>6.6861</v>
+        <v>8.8409</v>
       </c>
       <c r="E5">
-        <v>0.9568</v>
+        <v>0.9074</v>
       </c>
       <c r="F5">
-        <v>0.1078</v>
+        <v>0.147</v>
       </c>
       <c r="G5">
-        <v>0.0837</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2127,22 +2127,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.2363</v>
+        <v>8.855</v>
       </c>
       <c r="C6">
-        <v>96.4191</v>
+        <v>160.6664</v>
       </c>
       <c r="D6">
-        <v>9.8193</v>
+        <v>12.6754</v>
       </c>
       <c r="E6">
-        <v>0.8128</v>
+        <v>0.7922</v>
       </c>
       <c r="F6">
-        <v>0.1577</v>
+        <v>0.227</v>
       </c>
       <c r="G6">
-        <v>0.111</v>
+        <v>0.1853</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2150,22 +2150,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.818</v>
+        <v>6.8123</v>
       </c>
       <c r="C7">
-        <v>72.64190000000001</v>
+        <v>87.1854</v>
       </c>
       <c r="D7">
-        <v>8.460100000000001</v>
+        <v>9.1418</v>
       </c>
       <c r="E7">
-        <v>0.8877</v>
+        <v>0.8852</v>
       </c>
       <c r="F7">
-        <v>0.1366</v>
+        <v>0.1587</v>
       </c>
       <c r="G7">
-        <v>0.1036</v>
+        <v>0.1274</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2173,22 +2173,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.5215</v>
+        <v>1.142</v>
       </c>
       <c r="C8">
-        <v>16.9528</v>
+        <v>38.3525</v>
       </c>
       <c r="D8">
-        <v>1.0337</v>
+        <v>1.9009</v>
       </c>
       <c r="E8">
-        <v>0.047</v>
+        <v>0.0468</v>
       </c>
       <c r="F8">
-        <v>0.0208</v>
+        <v>0.0351</v>
       </c>
       <c r="G8">
-        <v>0.0129</v>
+        <v>0.0298</v>
       </c>
     </row>
   </sheetData>
@@ -2232,22 +2232,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.7379</v>
+        <v>4.7905</v>
       </c>
       <c r="C2">
-        <v>53.9943</v>
+        <v>46.6769</v>
       </c>
       <c r="D2">
-        <v>7.3481</v>
+        <v>6.832</v>
       </c>
       <c r="E2">
-        <v>0.9042</v>
+        <v>0.9353</v>
       </c>
       <c r="F2">
-        <v>0.1217</v>
+        <v>0.1089</v>
       </c>
       <c r="G2">
-        <v>0.1023</v>
+        <v>0.08260000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2255,22 +2255,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.1791</v>
+        <v>5.3063</v>
       </c>
       <c r="C3">
-        <v>56.0318</v>
+        <v>56.9215</v>
       </c>
       <c r="D3">
-        <v>7.4854</v>
+        <v>7.5446</v>
       </c>
       <c r="E3">
-        <v>0.9372</v>
+        <v>0.9323</v>
       </c>
       <c r="F3">
-        <v>0.1438</v>
+        <v>0.1195</v>
       </c>
       <c r="G3">
-        <v>0.1012</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2278,22 +2278,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.235</v>
+        <v>3.7327</v>
       </c>
       <c r="C4">
-        <v>67.2106</v>
+        <v>25.842</v>
       </c>
       <c r="D4">
-        <v>8.1982</v>
+        <v>5.0835</v>
       </c>
       <c r="E4">
-        <v>0.8901</v>
+        <v>0.9557</v>
       </c>
       <c r="F4">
-        <v>0.1135</v>
+        <v>0.09950000000000001</v>
       </c>
       <c r="G4">
-        <v>0.08790000000000001</v>
+        <v>0.0762</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2301,22 +2301,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.2481</v>
+        <v>5.2837</v>
       </c>
       <c r="C5">
-        <v>32.7369</v>
+        <v>49.3211</v>
       </c>
       <c r="D5">
-        <v>5.7216</v>
+        <v>7.0229</v>
       </c>
       <c r="E5">
-        <v>0.9684</v>
+        <v>0.9416</v>
       </c>
       <c r="F5">
-        <v>0.0973</v>
+        <v>0.1145</v>
       </c>
       <c r="G5">
-        <v>0.07480000000000001</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2324,22 +2324,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.2703</v>
+        <v>7.3288</v>
       </c>
       <c r="C6">
-        <v>93.8678</v>
+        <v>112.4465</v>
       </c>
       <c r="D6">
-        <v>9.688499999999999</v>
+        <v>10.6041</v>
       </c>
       <c r="E6">
-        <v>0.8178</v>
+        <v>0.8546</v>
       </c>
       <c r="F6">
-        <v>0.1584</v>
+        <v>0.2025</v>
       </c>
       <c r="G6">
-        <v>0.1141</v>
+        <v>0.1561</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2347,22 +2347,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.3341</v>
+        <v>5.2884</v>
       </c>
       <c r="C7">
-        <v>60.7683</v>
+        <v>58.2416</v>
       </c>
       <c r="D7">
-        <v>7.6884</v>
+        <v>7.4174</v>
       </c>
       <c r="E7">
-        <v>0.9035</v>
+        <v>0.9239000000000001</v>
       </c>
       <c r="F7">
-        <v>0.1269</v>
+        <v>0.129</v>
       </c>
       <c r="G7">
-        <v>0.0961</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2370,22 +2370,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6712</v>
+        <v>1.1689</v>
       </c>
       <c r="C8">
-        <v>19.9558</v>
+        <v>28.993</v>
       </c>
       <c r="D8">
-        <v>1.2873</v>
+        <v>1.7954</v>
       </c>
       <c r="E8">
-        <v>0.0508</v>
+        <v>0.0356</v>
       </c>
       <c r="F8">
-        <v>0.0217</v>
+        <v>0.0373</v>
       </c>
       <c r="G8">
-        <v>0.0135</v>
+        <v>0.0293</v>
       </c>
     </row>
   </sheetData>
@@ -2429,22 +2429,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.775</v>
+        <v>4.8726</v>
       </c>
       <c r="C2">
-        <v>51.3089</v>
+        <v>45.4692</v>
       </c>
       <c r="D2">
-        <v>7.163</v>
+        <v>6.7431</v>
       </c>
       <c r="E2">
-        <v>0.909</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F2">
-        <v>0.116</v>
+        <v>0.1095</v>
       </c>
       <c r="G2">
-        <v>0.101</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2452,22 +2452,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.581</v>
+        <v>4.942</v>
       </c>
       <c r="C3">
-        <v>50.8261</v>
+        <v>44.3776</v>
       </c>
       <c r="D3">
-        <v>7.1292</v>
+        <v>6.6617</v>
       </c>
       <c r="E3">
-        <v>0.9431</v>
+        <v>0.9473</v>
       </c>
       <c r="F3">
-        <v>0.1317</v>
+        <v>0.1034</v>
       </c>
       <c r="G3">
-        <v>0.08840000000000001</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2475,22 +2475,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.0674</v>
+        <v>3.9228</v>
       </c>
       <c r="C4">
-        <v>75.97329999999999</v>
+        <v>30.215</v>
       </c>
       <c r="D4">
-        <v>8.7163</v>
+        <v>5.4968</v>
       </c>
       <c r="E4">
-        <v>0.8758</v>
+        <v>0.9482</v>
       </c>
       <c r="F4">
-        <v>0.1105</v>
+        <v>0.1096</v>
       </c>
       <c r="G4">
-        <v>0.0806</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2498,22 +2498,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.1947</v>
+        <v>5.4248</v>
       </c>
       <c r="C5">
-        <v>28.7647</v>
+        <v>54.005</v>
       </c>
       <c r="D5">
-        <v>5.3633</v>
+        <v>7.3488</v>
       </c>
       <c r="E5">
-        <v>0.9722</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F5">
-        <v>0.08550000000000001</v>
+        <v>0.122</v>
       </c>
       <c r="G5">
-        <v>0.0707</v>
+        <v>0.0895</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2521,22 +2521,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.7839</v>
+        <v>7.3802</v>
       </c>
       <c r="C6">
-        <v>63.1087</v>
+        <v>113.7728</v>
       </c>
       <c r="D6">
-        <v>7.9441</v>
+        <v>10.6664</v>
       </c>
       <c r="E6">
-        <v>0.8774999999999999</v>
+        <v>0.8529</v>
       </c>
       <c r="F6">
-        <v>0.1426</v>
+        <v>0.1996</v>
       </c>
       <c r="G6">
-        <v>0.105</v>
+        <v>0.1543</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2544,22 +2544,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.0804</v>
+        <v>5.3085</v>
       </c>
       <c r="C7">
-        <v>53.9963</v>
+        <v>57.5679</v>
       </c>
       <c r="D7">
-        <v>7.2632</v>
+        <v>7.3834</v>
       </c>
       <c r="E7">
-        <v>0.9155</v>
+        <v>0.9243</v>
       </c>
       <c r="F7">
-        <v>0.1173</v>
+        <v>0.1288</v>
       </c>
       <c r="G7">
-        <v>0.0891</v>
+        <v>0.0968</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2567,22 +2567,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6343</v>
+        <v>1.1446</v>
       </c>
       <c r="C8">
-        <v>15.62</v>
+        <v>29.1212</v>
       </c>
       <c r="D8">
-        <v>1.1147</v>
+        <v>1.7475</v>
       </c>
       <c r="E8">
-        <v>0.0375</v>
+        <v>0.036</v>
       </c>
       <c r="F8">
-        <v>0.0195</v>
+        <v>0.0359</v>
       </c>
       <c r="G8">
-        <v>0.0127</v>
+        <v>0.029</v>
       </c>
     </row>
   </sheetData>
@@ -2629,22 +2629,22 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>4.2576</v>
+        <v>4.9404</v>
       </c>
       <c r="D2">
-        <v>37.227</v>
+        <v>45.2628</v>
       </c>
       <c r="E2">
-        <v>6.1014</v>
+        <v>6.7278</v>
       </c>
       <c r="F2">
-        <v>0.9256</v>
+        <v>0.9052</v>
       </c>
       <c r="G2">
-        <v>0.09429999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="H2">
-        <v>0.07190000000000001</v>
+        <v>0.0844</v>
       </c>
     </row>
   </sheetData>
